--- a/excel/Business Empire CURRENT.xlsx
+++ b/excel/Business Empire CURRENT.xlsx
@@ -1,21 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://wantirnacollege-my.sharepoint.com/personal/gla0008_wantirnacollege_vic_edu_au/Documents/Desktop/business_empire/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="310" documentId="11_AF303127E46D3F1E103C51E712B2ADAEC8704B1B" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DC963AD-42AB-4CD0-8881-A1969F632DFB}"/>
+  <bookViews>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="shop" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Factory" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="Propery Market" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="taxiService" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Shipping Company" sheetId="5" r:id="rId8"/>
+    <sheet name="shop" sheetId="1" r:id="rId1"/>
+    <sheet name="Factory" sheetId="2" r:id="rId2"/>
+    <sheet name="Propery Market" sheetId="3" r:id="rId3"/>
+    <sheet name="taxiService" sheetId="4" r:id="rId4"/>
+    <sheet name="Shipping Company" sheetId="5" r:id="rId5"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="159">
   <si>
     <t>Store Type</t>
   </si>
@@ -429,32 +451,121 @@
   </si>
   <si>
     <t>Scannea M Series</t>
+  </si>
+  <si>
+    <t>Profit/K:</t>
+  </si>
+  <si>
+    <t>Buenos Aires, Argentina</t>
+  </si>
+  <si>
+    <t>Houston, Texas</t>
+  </si>
+  <si>
+    <t>London, UK</t>
+  </si>
+  <si>
+    <t>Santiago, Chile</t>
+  </si>
+  <si>
+    <t>Vancouver, Canada</t>
+  </si>
+  <si>
+    <t>Pittsburgh, Pennsylvania</t>
+  </si>
+  <si>
+    <t>San Juan, Puerto Rico</t>
+  </si>
+  <si>
+    <t>Sale Price:</t>
+  </si>
+  <si>
+    <t>ROI hours:</t>
+  </si>
+  <si>
+    <t>Lyon, France</t>
+  </si>
+  <si>
+    <t>Cancun, Mexico</t>
+  </si>
+  <si>
+    <t>Columbus, Indiana</t>
+  </si>
+  <si>
+    <t>Munich, Germany</t>
+  </si>
+  <si>
+    <t>Rio De Janerio, Brazil</t>
+  </si>
+  <si>
+    <t>Dublin, Ireland</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>Cleveland, Ohio</t>
+  </si>
+  <si>
+    <t>Champlin, Minnesota</t>
+  </si>
+  <si>
+    <t>Lisbon, Portugal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -463,7 +574,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -473,83 +584,68 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="2" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf numFmtId="4" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="4" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -739,20 +835,23 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AF4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -850,19 +949,19 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="4">
-        <v>4899.0</v>
+        <v>4899</v>
       </c>
       <c r="C2" s="5">
         <v>51951.44</v>
       </c>
       <c r="D2" s="3">
         <f>C2/1520.06</f>
-        <v>34.17722985</v>
+        <v>34.177229846190286</v>
       </c>
       <c r="E2" s="3">
         <v>102.06</v>
@@ -873,15 +972,15 @@
       <c r="G2" s="3">
         <v>137.78</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="3">
         <f>G2-E2</f>
         <v>35.72</v>
       </c>
       <c r="I2" s="5">
         <v>1910.61</v>
       </c>
-      <c r="J2" s="6">
-        <f t="shared" ref="J2:J4" si="1">G2+K2</f>
+      <c r="J2" s="3">
+        <f t="shared" ref="J2:J4" si="0">G2+K2</f>
         <v>186</v>
       </c>
       <c r="K2" s="3">
@@ -890,8 +989,8 @@
       <c r="L2" s="5">
         <v>2483.79</v>
       </c>
-      <c r="M2" s="6">
-        <f t="shared" ref="M2:M4" si="2">J2+N2</f>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:M4" si="1">J2+N2</f>
         <v>251.11</v>
       </c>
       <c r="N2" s="3">
@@ -907,10 +1006,10 @@
         <v>87.89</v>
       </c>
       <c r="R2" s="5">
-        <v>4197.61</v>
-      </c>
-      <c r="S2" s="6">
-        <f t="shared" ref="S2:S4" si="3">P2+T2</f>
+        <v>4197.6099999999997</v>
+      </c>
+      <c r="S2" s="3">
+        <f t="shared" ref="S2:S4" si="2">P2+T2</f>
         <v>457.64</v>
       </c>
       <c r="T2" s="3">
@@ -919,18 +1018,18 @@
       <c r="U2" s="5">
         <v>5456.89</v>
       </c>
-      <c r="V2" s="6">
-        <f t="shared" ref="V2:V3" si="4">S2+W2</f>
-        <v>617.81</v>
+      <c r="V2" s="3">
+        <f t="shared" ref="V2:V3" si="3">S2+W2</f>
+        <v>617.80999999999995</v>
       </c>
       <c r="W2" s="3">
-        <v>160.17</v>
+        <v>160.16999999999999</v>
       </c>
       <c r="X2" s="5">
         <v>7093.96</v>
       </c>
-      <c r="Y2" s="6">
-        <f t="shared" ref="Y2:Y4" si="5">V2+Z2</f>
+      <c r="Y2" s="3">
+        <f t="shared" ref="Y2:Y4" si="4">V2+Z2</f>
         <v>834.05</v>
       </c>
       <c r="Z2" s="3">
@@ -948,56 +1047,56 @@
       <c r="AD2" s="5">
         <v>11988.79</v>
       </c>
-      <c r="AE2" s="7">
-        <f t="shared" ref="AE2:AE3" si="6">AB2+AF2</f>
+      <c r="AE2" s="5">
+        <f t="shared" ref="AE2:AE3" si="5">AB2+AF2</f>
         <v>1520.06</v>
       </c>
       <c r="AF2" s="3">
         <v>394.09</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="4">
-        <v>12999.0</v>
+        <v>12999</v>
       </c>
       <c r="C3" s="5">
         <v>137847.87</v>
       </c>
       <c r="D3" s="3">
         <f>C3/5898.68</f>
-        <v>23.36927414</v>
+        <v>23.369274142689548</v>
       </c>
       <c r="E3" s="3">
-        <v>324.97</v>
+        <v>324.97000000000003</v>
       </c>
       <c r="F3" s="5">
         <v>3899.7</v>
       </c>
-      <c r="G3" s="6">
-        <f t="shared" ref="G3:G4" si="7">E3+H3</f>
-        <v>448.46</v>
+      <c r="G3" s="3">
+        <f t="shared" ref="G3:G4" si="6">E3+H3</f>
+        <v>448.46000000000004</v>
       </c>
       <c r="H3" s="3">
         <v>123.49</v>
       </c>
       <c r="I3" s="5">
-        <v>5069.61</v>
-      </c>
-      <c r="J3" s="6">
-        <f t="shared" si="1"/>
+        <v>5069.6099999999997</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" si="0"/>
         <v>618.87</v>
       </c>
       <c r="K3" s="3">
         <v>170.41</v>
       </c>
-      <c r="L3" s="8">
+      <c r="L3" s="6">
         <v>6590.49</v>
       </c>
-      <c r="M3" s="6">
-        <f t="shared" si="2"/>
+      <c r="M3" s="3">
+        <f t="shared" si="1"/>
         <v>854.04</v>
       </c>
       <c r="N3" s="3">
@@ -1010,13 +1109,13 @@
         <v>1178.58</v>
       </c>
       <c r="Q3" s="3">
-        <v>324.54</v>
+        <v>324.54000000000002</v>
       </c>
       <c r="R3" s="5">
         <v>11137.93</v>
       </c>
-      <c r="S3" s="7">
-        <f t="shared" si="3"/>
+      <c r="S3" s="5">
+        <f t="shared" si="2"/>
         <v>1626.44</v>
       </c>
       <c r="T3" s="3">
@@ -1025,19 +1124,19 @@
       <c r="U3" s="5">
         <v>14479.31</v>
       </c>
-      <c r="V3" s="7">
-        <f t="shared" si="4"/>
-        <v>2244.49</v>
+      <c r="V3" s="5">
+        <f t="shared" si="3"/>
+        <v>2244.4899999999998</v>
       </c>
       <c r="W3" s="3">
-        <v>618.05</v>
+        <v>618.04999999999995</v>
       </c>
       <c r="X3" s="5">
         <v>18823.11</v>
       </c>
-      <c r="Y3" s="7">
-        <f t="shared" si="5"/>
-        <v>3097.4</v>
+      <c r="Y3" s="5">
+        <f t="shared" si="4"/>
+        <v>3097.3999999999996</v>
       </c>
       <c r="Z3" s="3">
         <v>852.91</v>
@@ -1045,8 +1144,8 @@
       <c r="AA3" s="5">
         <v>24470.04</v>
       </c>
-      <c r="AB3" s="7">
-        <f t="shared" ref="AB3:AB4" si="8">Y3+AC3</f>
+      <c r="AB3" s="5">
+        <f t="shared" ref="AB3:AB4" si="7">Y3+AC3</f>
         <v>4274.41</v>
       </c>
       <c r="AC3" s="5">
@@ -1055,27 +1154,27 @@
       <c r="AD3" s="5">
         <v>31811.05</v>
       </c>
-      <c r="AE3" s="7">
-        <f t="shared" si="6"/>
+      <c r="AE3" s="5">
+        <f t="shared" si="5"/>
         <v>5898.68</v>
       </c>
       <c r="AF3" s="5">
         <v>1624.27</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
       <c r="B4" s="4">
-        <v>54999.0</v>
+        <v>54999</v>
       </c>
       <c r="C4" s="5">
         <v>583236.86</v>
       </c>
       <c r="D4" s="3">
         <f>C4/35863.06</f>
-        <v>16.2628861</v>
+        <v>16.262886100628336</v>
       </c>
       <c r="E4" s="5">
         <v>1527.75</v>
@@ -1083,8 +1182,8 @@
       <c r="F4" s="5">
         <v>16499.7</v>
       </c>
-      <c r="G4" s="7">
-        <f t="shared" si="7"/>
+      <c r="G4" s="5">
+        <f t="shared" si="6"/>
         <v>2169.41</v>
       </c>
       <c r="H4" s="3">
@@ -1093,8 +1192,8 @@
       <c r="I4" s="5">
         <v>21449.61</v>
       </c>
-      <c r="J4" s="7">
-        <f t="shared" si="1"/>
+      <c r="J4" s="5">
+        <f t="shared" si="0"/>
         <v>3080.56</v>
       </c>
       <c r="K4" s="3">
@@ -1103,19 +1202,19 @@
       <c r="L4" s="5">
         <v>27884.49</v>
       </c>
-      <c r="M4" s="7">
-        <f t="shared" si="2"/>
-        <v>4374.39</v>
+      <c r="M4" s="5">
+        <f t="shared" si="1"/>
+        <v>4374.3899999999994</v>
       </c>
       <c r="N4" s="5">
         <v>1293.83</v>
       </c>
       <c r="O4" s="5">
-        <v>36249.84</v>
-      </c>
-      <c r="P4" s="7">
+        <v>36249.839999999997</v>
+      </c>
+      <c r="P4" s="5">
         <f>M4+Q4</f>
-        <v>6211.63</v>
+        <v>6211.6299999999992</v>
       </c>
       <c r="Q4" s="5">
         <v>1837.24</v>
@@ -1123,9 +1222,9 @@
       <c r="R4" s="5">
         <v>47124.79</v>
       </c>
-      <c r="S4" s="7">
-        <f t="shared" si="3"/>
-        <v>8820.52</v>
+      <c r="S4" s="5">
+        <f t="shared" si="2"/>
+        <v>8820.5199999999986</v>
       </c>
       <c r="T4" s="5">
         <v>2608.89</v>
@@ -1140,11 +1239,11 @@
         <v>3704.62</v>
       </c>
       <c r="X4" s="5">
-        <v>79640.9</v>
-      </c>
-      <c r="Y4" s="7">
-        <f t="shared" si="5"/>
-        <v>17785.69</v>
+        <v>79640.899999999994</v>
+      </c>
+      <c r="Y4" s="5">
+        <f t="shared" si="4"/>
+        <v>17785.689999999999</v>
       </c>
       <c r="Z4" s="5">
         <v>5260.56</v>
@@ -1152,8 +1251,8 @@
       <c r="AA4" s="5">
         <v>103533.17</v>
       </c>
-      <c r="AB4" s="7">
-        <f t="shared" si="8"/>
+      <c r="AB4" s="5">
+        <f t="shared" si="7"/>
         <v>25255.68</v>
       </c>
       <c r="AC4" s="5">
@@ -1170,21 +1269,24 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:BJ4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AK3" sqref="AK3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>35</v>
       </c>
@@ -1372,12 +1474,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="4">
-        <v>24999.0</v>
+        <v>24999</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="3">
@@ -1385,14 +1487,14 @@
         <v>0</v>
       </c>
       <c r="E2" s="3">
-        <v>520.0</v>
+        <v>520</v>
       </c>
       <c r="F2" s="5">
         <v>299.88</v>
       </c>
       <c r="G2" s="5">
-        <f t="shared" ref="G2:G3" si="1">E2+H2</f>
-        <v>603.2</v>
+        <f t="shared" ref="G2:G3" si="0">E2+H2</f>
+        <v>603.20000000000005</v>
       </c>
       <c r="H2" s="5">
         <v>83.2</v>
@@ -1401,7 +1503,7 @@
         <v>3359.87</v>
       </c>
       <c r="J2" s="5">
-        <f t="shared" ref="J2:J3" si="2">G2+K2</f>
+        <f t="shared" ref="J2:J3" si="1">G2+K2</f>
         <v>699.71</v>
       </c>
       <c r="K2" s="5">
@@ -1429,7 +1531,7 @@
         <v>4720.37</v>
       </c>
       <c r="S2" s="5">
-        <f t="shared" ref="S2:S3" si="3">P2+T2</f>
+        <f t="shared" ref="S2:S3" si="2">P2+T2</f>
         <v>1092.18</v>
       </c>
       <c r="T2" s="5">
@@ -1439,7 +1541,7 @@
         <v>5286.81</v>
       </c>
       <c r="V2" s="5">
-        <f t="shared" ref="V2:V3" si="4">S2+W2</f>
+        <f t="shared" ref="V2:V3" si="3">S2+W2</f>
         <v>1266.93</v>
       </c>
       <c r="W2" s="5">
@@ -1467,49 +1569,63 @@
         <v>7427.59</v>
       </c>
       <c r="AE2" s="5">
-        <f t="shared" ref="AE2:AE3" si="5">AB2+AF2</f>
+        <f t="shared" ref="AE2:AE3" si="4">AB2+AF2</f>
         <v>1977.54</v>
       </c>
       <c r="AF2" s="5">
         <v>272.76</v>
       </c>
-      <c r="AG2" s="5"/>
-      <c r="AH2" s="3"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="5"/>
-      <c r="AK2" s="6"/>
-      <c r="AL2" s="3"/>
+      <c r="AG2" s="5">
+        <v>8318.9</v>
+      </c>
+      <c r="AH2" s="5">
+        <f>AE2+AI2</f>
+        <v>2293.9499999999998</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>316.41000000000003</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>9317.17</v>
+      </c>
+      <c r="AK2" s="5">
+        <f>AH2+AL2</f>
+        <v>2660.9799999999996</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>367.03</v>
+      </c>
       <c r="AM2" s="5"/>
-      <c r="AN2" s="6"/>
+      <c r="AN2" s="3"/>
       <c r="AO2" s="3"/>
       <c r="AP2" s="5"/>
       <c r="AQ2" s="3"/>
       <c r="AR2" s="3"/>
       <c r="AS2" s="5"/>
-      <c r="AT2" s="6"/>
+      <c r="AT2" s="3"/>
       <c r="AU2" s="3"/>
       <c r="AV2" s="5"/>
-      <c r="AW2" s="6"/>
+      <c r="AW2" s="3"/>
       <c r="AX2" s="3"/>
       <c r="AY2" s="5"/>
-      <c r="AZ2" s="6"/>
+      <c r="AZ2" s="3"/>
       <c r="BA2" s="3"/>
       <c r="BB2" s="5"/>
       <c r="BC2" s="5"/>
       <c r="BD2" s="3"/>
       <c r="BE2" s="5"/>
-      <c r="BF2" s="6"/>
+      <c r="BF2" s="3"/>
       <c r="BG2" s="3"/>
       <c r="BH2" s="3"/>
       <c r="BI2" s="3"/>
       <c r="BJ2" s="3"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="4">
-        <v>184990.0</v>
+        <v>184990</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="3">
@@ -1517,13 +1633,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="4">
-        <v>3853.0</v>
+        <v>3853</v>
       </c>
       <c r="F3" s="5">
         <v>27748.5</v>
       </c>
       <c r="G3" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4508.01</v>
       </c>
       <c r="H3" s="5">
@@ -1533,7 +1649,7 @@
         <v>31910.78</v>
       </c>
       <c r="J3" s="5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>5274.37</v>
       </c>
       <c r="K3" s="5">
@@ -1550,7 +1666,7 @@
         <v>896.64</v>
       </c>
       <c r="O3" s="5">
-        <v>42202.0</v>
+        <v>42202</v>
       </c>
       <c r="P3" s="5">
         <v>7220.09</v>
@@ -1562,17 +1678,17 @@
         <v>48532.3</v>
       </c>
       <c r="S3" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>8447.5</v>
       </c>
       <c r="T3" s="5">
-        <v>1227.41</v>
+        <v>1227.4100000000001</v>
       </c>
       <c r="U3" s="5">
         <v>55812.15</v>
       </c>
       <c r="V3" s="5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>9883.58</v>
       </c>
       <c r="W3" s="5">
@@ -1593,7 +1709,7 @@
       </c>
       <c r="AB3" s="5">
         <f>Y3+AC3</f>
-        <v>13529.63</v>
+        <v>13529.630000000001</v>
       </c>
       <c r="AC3" s="5">
         <v>1965.84</v>
@@ -1602,44 +1718,58 @@
         <v>84883.3</v>
       </c>
       <c r="AE3" s="5">
-        <f t="shared" si="5"/>
-        <v>15829.67</v>
+        <f>AB3+AF3</f>
+        <v>15829.670000000002</v>
       </c>
       <c r="AF3" s="5">
         <v>2300.04</v>
       </c>
-      <c r="AG3" s="5"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="3"/>
-      <c r="AJ3" s="5"/>
-      <c r="AK3" s="6"/>
-      <c r="AL3" s="3"/>
-      <c r="AM3" s="8"/>
-      <c r="AN3" s="6"/>
+      <c r="AG3" s="5">
+        <v>97615.79</v>
+      </c>
+      <c r="AH3" s="5">
+        <f>AE3+AI3</f>
+        <v>18520.710000000003</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>2691.04</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>112258.16</v>
+      </c>
+      <c r="AK3" s="5">
+        <f>AH3+AL3</f>
+        <v>21669.230000000003</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>3148.52</v>
+      </c>
+      <c r="AM3" s="6"/>
+      <c r="AN3" s="3"/>
       <c r="AO3" s="3"/>
       <c r="AP3" s="5"/>
       <c r="AQ3" s="5"/>
       <c r="AR3" s="3"/>
       <c r="AS3" s="5"/>
-      <c r="AT3" s="6"/>
+      <c r="AT3" s="3"/>
       <c r="AU3" s="3"/>
       <c r="AV3" s="5"/>
-      <c r="AW3" s="6"/>
+      <c r="AW3" s="3"/>
       <c r="AX3" s="3"/>
       <c r="AY3" s="5"/>
-      <c r="AZ3" s="6"/>
+      <c r="AZ3" s="3"/>
       <c r="BA3" s="3"/>
       <c r="BB3" s="5"/>
-      <c r="BC3" s="6"/>
+      <c r="BC3" s="3"/>
       <c r="BD3" s="5"/>
       <c r="BE3" s="5"/>
-      <c r="BF3" s="6"/>
+      <c r="BF3" s="3"/>
       <c r="BG3" s="5"/>
       <c r="BH3" s="5"/>
       <c r="BI3" s="5"/>
       <c r="BJ3" s="5"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:62" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="5"/>
@@ -1673,28 +1803,28 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
-      <c r="AH4" s="6"/>
+      <c r="AH4" s="3"/>
       <c r="AI4" s="3"/>
       <c r="AJ4" s="5"/>
-      <c r="AK4" s="6"/>
+      <c r="AK4" s="3"/>
       <c r="AL4" s="3"/>
       <c r="AM4" s="5"/>
-      <c r="AN4" s="6"/>
+      <c r="AN4" s="3"/>
       <c r="AO4" s="5"/>
       <c r="AP4" s="5"/>
-      <c r="AQ4" s="6"/>
+      <c r="AQ4" s="3"/>
       <c r="AR4" s="5"/>
       <c r="AS4" s="5"/>
-      <c r="AT4" s="6"/>
+      <c r="AT4" s="3"/>
       <c r="AU4" s="5"/>
       <c r="AV4" s="5"/>
       <c r="AW4" s="5"/>
       <c r="AX4" s="5"/>
       <c r="AY4" s="5"/>
-      <c r="AZ4" s="6"/>
+      <c r="AZ4" s="3"/>
       <c r="BA4" s="5"/>
       <c r="BB4" s="5"/>
-      <c r="BC4" s="6"/>
+      <c r="BC4" s="3"/>
       <c r="BD4" s="5"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="5"/>
@@ -1704,945 +1834,2126 @@
       <c r="BJ4" s="5"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:V29"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="F1" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="J1" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="K1" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="L1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="M1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="O1" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="P1" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="Q1" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="P1" s="9" t="s">
+      <c r="R1" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="Q1" s="9" t="s">
+      <c r="S1" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="R1" s="9" t="s">
+      <c r="T1" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="S1" s="9" t="s">
+      <c r="U1" s="16" t="s">
         <v>86</v>
       </c>
-      <c r="T1" s="9" t="s">
+      <c r="V1" s="16" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B2" s="10">
-        <v>25000.0</v>
-      </c>
-      <c r="C2" s="9">
-        <v>395.0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>65000.0</v>
-      </c>
-      <c r="E2" s="10">
-        <f t="shared" ref="E2:E28" si="1">T2</f>
+      <c r="B2" s="8">
+        <v>25000</v>
+      </c>
+      <c r="C2" s="7">
+        <v>395</v>
+      </c>
+      <c r="D2" s="12">
+        <f t="shared" ref="D2:D20" si="0">(B2 * 2)+I2+L2+O2+R2</f>
+        <v>65000</v>
+      </c>
+      <c r="E2" s="8">
+        <f>V2</f>
         <v>1027</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="8">
+        <f>D2/E2</f>
+        <v>63.291139240506332</v>
+      </c>
+      <c r="G2" s="8">
+        <f>D2*0.88</f>
+        <v>57200</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="10">
-        <v>1250.0</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="I2" s="8">
+        <v>1250</v>
+      </c>
+      <c r="J2" s="7">
         <v>414.75</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="K2" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J2" s="10">
-        <v>2500.0</v>
-      </c>
-      <c r="K2" s="9">
+      <c r="L2" s="8">
+        <v>2500</v>
+      </c>
+      <c r="M2" s="7">
         <v>454.25</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="N2" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M2" s="10">
-        <v>3750.0</v>
-      </c>
-      <c r="N2" s="9">
+      <c r="O2" s="8">
+        <v>3750</v>
+      </c>
+      <c r="P2" s="7">
         <v>513.5</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="Q2" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P2" s="10">
-        <v>7500.0</v>
-      </c>
-      <c r="Q2" s="9">
-        <v>632.0</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="R2" s="8">
+        <v>7500</v>
+      </c>
+      <c r="S2" s="7">
+        <v>632</v>
+      </c>
+      <c r="T2" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S2" s="11">
-        <f t="shared" ref="S2:S28" si="2">B2</f>
+      <c r="U2" s="8">
+        <f>B2</f>
         <v>25000</v>
       </c>
-      <c r="T2" s="10">
-        <v>1027.0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="V2" s="8">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="C3" s="7"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="8"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="8"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B3" s="10">
-        <v>39000.0</v>
-      </c>
-      <c r="C3" s="9">
-        <v>616.2</v>
-      </c>
-      <c r="D3" s="10">
-        <v>101400.0</v>
-      </c>
-      <c r="E3" s="10">
+      <c r="B4" s="8">
+        <v>39000</v>
+      </c>
+      <c r="C4" s="7">
+        <v>616.20000000000005</v>
+      </c>
+      <c r="D4" s="12">
+        <f t="shared" si="0"/>
+        <v>101400</v>
+      </c>
+      <c r="E4" s="8">
+        <f>V4</f>
+        <v>1602.12</v>
+      </c>
+      <c r="F4" s="8">
+        <f t="shared" ref="F4:F29" si="1">D4/E4</f>
+        <v>63.291139240506332</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" ref="G4:G29" si="2">D4*0.88</f>
+        <v>89232</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I4" s="8">
+        <v>1950</v>
+      </c>
+      <c r="J4" s="7">
+        <v>647.01</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L4" s="8">
+        <v>3900</v>
+      </c>
+      <c r="M4" s="7">
+        <v>708.63</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O4" s="8">
+        <v>5850</v>
+      </c>
+      <c r="P4" s="7">
+        <v>801.06</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R4" s="8">
+        <v>11700</v>
+      </c>
+      <c r="S4" s="7">
+        <v>985.92</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U4" s="8">
+        <f>B4</f>
+        <v>39000</v>
+      </c>
+      <c r="V4" s="9">
+        <v>1602.12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B5" s="8">
+        <v>42500</v>
+      </c>
+      <c r="C5" s="7">
+        <v>671.5</v>
+      </c>
+      <c r="D5" s="12">
+        <f t="shared" si="0"/>
+        <v>110500</v>
+      </c>
+      <c r="E5" s="8">
+        <f>V5</f>
+        <v>1745.9</v>
+      </c>
+      <c r="F5" s="8">
         <f t="shared" si="1"/>
-        <v>1602.12</v>
-      </c>
-      <c r="F3" s="9" t="s">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G5" s="8">
+        <f t="shared" si="2"/>
+        <v>97240</v>
+      </c>
+      <c r="H5" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G3" s="10">
-        <v>1950.0</v>
-      </c>
-      <c r="H3" s="9">
-        <v>647.01</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="I5" s="8">
+        <v>2125</v>
+      </c>
+      <c r="J5" s="7">
+        <v>705.08</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J3" s="10">
-        <v>3900.0</v>
-      </c>
-      <c r="K3" s="9">
-        <v>708.63</v>
-      </c>
-      <c r="L3" s="9" t="s">
+      <c r="L5" s="8">
+        <v>4250</v>
+      </c>
+      <c r="M5" s="7">
+        <v>772.23</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M3" s="10">
-        <v>5850.0</v>
-      </c>
-      <c r="N3" s="9">
-        <v>801.06</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="O5" s="8">
+        <v>6375</v>
+      </c>
+      <c r="P5" s="7">
+        <v>872.95</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P3" s="10">
-        <v>11700.0</v>
-      </c>
-      <c r="Q3" s="9">
-        <v>985.92</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="R5" s="8">
+        <v>12750</v>
+      </c>
+      <c r="S5" s="9">
+        <v>1074.4000000000001</v>
+      </c>
+      <c r="T5" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S3" s="11">
+      <c r="U5" s="8">
+        <f>B5</f>
+        <v>42500</v>
+      </c>
+      <c r="V5" s="7">
+        <v>1745.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="8">
+        <v>47480</v>
+      </c>
+      <c r="C6" s="7">
+        <v>750.18</v>
+      </c>
+      <c r="D6" s="12">
+        <f t="shared" si="0"/>
+        <v>123448</v>
+      </c>
+      <c r="E6" s="8">
+        <f>V6</f>
+        <v>1950.48</v>
+      </c>
+      <c r="F6" s="8">
+        <f t="shared" si="1"/>
+        <v>63.291087322095073</v>
+      </c>
+      <c r="G6" s="8">
         <f t="shared" si="2"/>
-        <v>39000</v>
-      </c>
-      <c r="T3" s="12">
-        <v>1602.12</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="B4" s="10">
-        <v>42500.0</v>
-      </c>
-      <c r="C4" s="9">
-        <v>671.5</v>
-      </c>
-      <c r="D4" s="10">
-        <v>110500.0</v>
-      </c>
-      <c r="E4" s="10">
+        <v>108634.24000000001</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="8">
+        <v>2374</v>
+      </c>
+      <c r="J6" s="7">
+        <v>787.69</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L6" s="8">
+        <v>4748</v>
+      </c>
+      <c r="M6" s="7">
+        <v>862.71</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O6" s="8">
+        <v>7122</v>
+      </c>
+      <c r="P6" s="7">
+        <v>975.24</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R6" s="8">
+        <v>14244</v>
+      </c>
+      <c r="S6" s="9">
+        <v>1200.29</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U6" s="8">
+        <f>B6</f>
+        <v>47480</v>
+      </c>
+      <c r="V6" s="9">
+        <v>1950.48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="8">
+        <v>52000</v>
+      </c>
+      <c r="C7" s="7">
+        <v>821.6</v>
+      </c>
+      <c r="D7" s="12">
+        <f t="shared" si="0"/>
+        <v>135200</v>
+      </c>
+      <c r="E7" s="8">
+        <f>V7</f>
+        <v>2136.16</v>
+      </c>
+      <c r="F7" s="8">
         <f t="shared" si="1"/>
-        <v>1745.9</v>
-      </c>
-      <c r="F4" s="9" t="s">
+        <v>63.291139240506332</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" si="2"/>
+        <v>118976</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G4" s="10">
-        <v>2125.0</v>
-      </c>
-      <c r="H4" s="9">
-        <v>705.08</v>
-      </c>
-      <c r="I4" s="9" t="s">
+      <c r="I7" s="8">
+        <v>2600</v>
+      </c>
+      <c r="J7" s="7">
+        <v>862.68</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J4" s="10">
-        <v>4250.0</v>
-      </c>
-      <c r="K4" s="9">
-        <v>772.23</v>
-      </c>
-      <c r="L4" s="9" t="s">
+      <c r="L7" s="8">
+        <v>5200</v>
+      </c>
+      <c r="M7" s="7">
+        <v>944.84</v>
+      </c>
+      <c r="N7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M4" s="10">
-        <v>6375.0</v>
-      </c>
-      <c r="N4" s="9">
-        <v>872.95</v>
-      </c>
-      <c r="O4" s="9" t="s">
+      <c r="O7" s="8">
+        <v>7800</v>
+      </c>
+      <c r="P7" s="9">
+        <v>1068.08</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P4" s="10">
-        <v>12750.0</v>
-      </c>
-      <c r="Q4" s="12">
-        <v>1074.4</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="R7" s="8">
+        <v>15600</v>
+      </c>
+      <c r="S7" s="9">
+        <v>1314.56</v>
+      </c>
+      <c r="T7" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S4" s="11">
+      <c r="U7" s="8">
+        <f>B7</f>
+        <v>52000</v>
+      </c>
+      <c r="V7" s="9">
+        <v>2136.16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="8">
+        <v>55000</v>
+      </c>
+      <c r="C8" s="7">
+        <v>869</v>
+      </c>
+      <c r="D8" s="12">
+        <f t="shared" si="0"/>
+        <v>143000</v>
+      </c>
+      <c r="E8" s="8">
+        <f>V8</f>
+        <v>2259.4</v>
+      </c>
+      <c r="F8" s="8">
+        <f t="shared" si="1"/>
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G8" s="8">
         <f t="shared" si="2"/>
-        <v>42500</v>
-      </c>
-      <c r="T4" s="9">
-        <v>1745.9</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="10">
-        <v>47480.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>750.18</v>
-      </c>
-      <c r="D5" s="10">
-        <v>123448.0</v>
-      </c>
-      <c r="E5" s="10">
+        <v>125840</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="8">
+        <v>2750</v>
+      </c>
+      <c r="J8" s="7">
+        <v>912.45</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="8">
+        <v>5500</v>
+      </c>
+      <c r="M8" s="7">
+        <v>999.35</v>
+      </c>
+      <c r="N8" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="8">
+        <v>8250</v>
+      </c>
+      <c r="P8" s="9">
+        <v>1129.7</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="8">
+        <v>16500</v>
+      </c>
+      <c r="S8" s="9">
+        <v>1390.4</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U8" s="8">
+        <f>B8</f>
+        <v>55000</v>
+      </c>
+      <c r="V8" s="9">
+        <v>2259.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="8">
+        <v>61200</v>
+      </c>
+      <c r="C9" s="7">
+        <v>966.96</v>
+      </c>
+      <c r="D9" s="12">
+        <f t="shared" si="0"/>
+        <v>159120</v>
+      </c>
+      <c r="E9" s="8">
+        <f>V9</f>
+        <v>2514.1</v>
+      </c>
+      <c r="F9" s="8">
         <f t="shared" si="1"/>
-        <v>1950.48</v>
-      </c>
-      <c r="F5" s="9" t="s">
+        <v>63.291038542619624</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="2"/>
+        <v>140025.60000000001</v>
+      </c>
+      <c r="H9" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G5" s="10">
-        <v>2374.0</v>
-      </c>
-      <c r="H5" s="9">
-        <v>787.69</v>
-      </c>
-      <c r="I5" s="9" t="s">
+      <c r="I9" s="8">
+        <v>3060</v>
+      </c>
+      <c r="J9" s="9">
+        <v>1015.31</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="10">
-        <v>4748.0</v>
-      </c>
-      <c r="K5" s="9">
-        <v>862.71</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="L9" s="8">
+        <v>6120</v>
+      </c>
+      <c r="M9" s="8">
+        <v>1112</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M5" s="10">
-        <v>7122.0</v>
-      </c>
-      <c r="N5" s="9">
-        <v>975.24</v>
-      </c>
-      <c r="O5" s="9" t="s">
+      <c r="O9" s="8">
+        <v>9180</v>
+      </c>
+      <c r="P9" s="9">
+        <v>1257.05</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="10">
-        <v>14244.0</v>
-      </c>
-      <c r="Q5" s="12">
-        <v>1200.29</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="R9" s="8">
+        <v>18360</v>
+      </c>
+      <c r="S9" s="9">
+        <v>1547.14</v>
+      </c>
+      <c r="T9" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S5" s="11">
+      <c r="U9" s="8">
+        <f>B9</f>
+        <v>61200</v>
+      </c>
+      <c r="V9" s="9">
+        <v>2514.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="8">
+        <v>69500</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1098.0999999999999</v>
+      </c>
+      <c r="D10" s="12">
+        <f t="shared" si="0"/>
+        <v>180700</v>
+      </c>
+      <c r="E10" s="8">
+        <f>V10</f>
+        <v>2855.06</v>
+      </c>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>63.291139240506332</v>
+      </c>
+      <c r="G10" s="8">
         <f t="shared" si="2"/>
-        <v>47480</v>
-      </c>
-      <c r="T5" s="12">
-        <v>1950.48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="B6" s="10">
-        <v>52000.0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>821.6</v>
-      </c>
-      <c r="D6" s="10">
-        <v>135200.0</v>
-      </c>
-      <c r="E6" s="10">
+        <v>159016</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="8">
+        <v>3475</v>
+      </c>
+      <c r="J10" s="9">
+        <v>1153.01</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L10" s="8">
+        <v>6950</v>
+      </c>
+      <c r="M10" s="9">
+        <v>1262.82</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="O10" s="8">
+        <v>10425</v>
+      </c>
+      <c r="P10" s="9">
+        <v>1427.53</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="R10" s="8">
+        <v>20850</v>
+      </c>
+      <c r="S10" s="9">
+        <v>1756.96</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="U10" s="8">
+        <f>B10</f>
+        <v>69500</v>
+      </c>
+      <c r="V10" s="9">
+        <v>2855.06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B11" s="8">
+        <v>74000</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1168.2</v>
+      </c>
+      <c r="D11" s="12">
+        <f t="shared" si="0"/>
+        <v>192400</v>
+      </c>
+      <c r="E11" s="8">
+        <f>V11</f>
+        <v>3039.92</v>
+      </c>
+      <c r="F11" s="8">
         <f t="shared" si="1"/>
-        <v>2136.16</v>
-      </c>
-      <c r="F6" s="9" t="s">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G11" s="8">
+        <f t="shared" si="2"/>
+        <v>169312</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="10">
-        <v>2600.0</v>
-      </c>
-      <c r="H6" s="9">
-        <v>862.68</v>
-      </c>
-      <c r="I6" s="9" t="s">
+      <c r="I11" s="8">
+        <v>3700</v>
+      </c>
+      <c r="J11" s="9">
+        <v>1227.6600000000001</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="10">
-        <v>5200.0</v>
-      </c>
-      <c r="K6" s="9">
-        <v>944.84</v>
-      </c>
-      <c r="L6" s="9" t="s">
+      <c r="L11" s="8">
+        <v>7400</v>
+      </c>
+      <c r="M11" s="9">
+        <v>1344.58</v>
+      </c>
+      <c r="N11" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="M6" s="10">
-        <v>7800.0</v>
-      </c>
-      <c r="N6" s="12">
-        <v>1068.08</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="O11" s="8">
+        <v>11100</v>
+      </c>
+      <c r="P11" s="9">
+        <v>1519.96</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P6" s="10">
-        <v>15600.0</v>
-      </c>
-      <c r="Q6" s="12">
-        <v>1314.56</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="R11" s="8">
+        <v>22200</v>
+      </c>
+      <c r="S11" s="9">
+        <v>1870.72</v>
+      </c>
+      <c r="T11" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="S6" s="11">
+      <c r="U11" s="8">
+        <f>B11</f>
+        <v>74000</v>
+      </c>
+      <c r="V11" s="9">
+        <v>3039.92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="B12" s="12">
+        <v>89200</v>
+      </c>
+      <c r="C12" s="14">
+        <v>1409.36</v>
+      </c>
+      <c r="D12" s="12">
+        <f t="shared" si="0"/>
+        <v>231920</v>
+      </c>
+      <c r="E12" s="8">
+        <f>V12</f>
+        <v>3664.34</v>
+      </c>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>63.291070151787224</v>
+      </c>
+      <c r="G12" s="8">
         <f t="shared" si="2"/>
-        <v>52000</v>
-      </c>
-      <c r="T6" s="12">
-        <v>2136.16</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="B7" s="10">
-        <v>55000.0</v>
-      </c>
-      <c r="C7" s="9">
-        <v>869.0</v>
-      </c>
-      <c r="D7" s="10">
-        <v>143000.0</v>
-      </c>
-      <c r="E7" s="10">
+        <v>204089.60000000001</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" s="12">
+        <v>4460</v>
+      </c>
+      <c r="J12" s="14">
+        <v>1479.83</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" s="12">
+        <v>8920</v>
+      </c>
+      <c r="M12" s="14">
+        <v>1620.76</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O12" s="12">
+        <v>13380</v>
+      </c>
+      <c r="P12" s="15">
+        <v>1832.17</v>
+      </c>
+      <c r="Q12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R12" s="12">
+        <v>26760</v>
+      </c>
+      <c r="S12" s="14">
+        <v>2254.98</v>
+      </c>
+      <c r="T12" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U12" s="8">
+        <f>B12</f>
+        <v>89200</v>
+      </c>
+      <c r="V12" s="14">
+        <v>3664.34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="B13" s="12">
+        <v>99000</v>
+      </c>
+      <c r="C13" s="14">
+        <v>1564.2</v>
+      </c>
+      <c r="D13" s="12">
+        <f t="shared" si="0"/>
+        <v>257400</v>
+      </c>
+      <c r="E13" s="8">
+        <f>V13</f>
+        <v>4066.92</v>
+      </c>
+      <c r="F13" s="8">
         <f t="shared" si="1"/>
-        <v>2259.4</v>
-      </c>
-      <c r="F7" s="9" t="s">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G13" s="8">
+        <f t="shared" si="2"/>
+        <v>226512</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="10">
-        <v>2750.0</v>
-      </c>
-      <c r="H7" s="9">
-        <v>912.45</v>
-      </c>
-      <c r="I7" s="9" t="s">
+      <c r="I13" s="12">
+        <v>4950</v>
+      </c>
+      <c r="J13" s="14">
+        <v>1642.41</v>
+      </c>
+      <c r="K13" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="10">
-        <v>5500.0</v>
-      </c>
-      <c r="K7" s="9">
-        <v>999.35</v>
-      </c>
-      <c r="L7" s="9" t="s">
+      <c r="L13" s="12">
+        <v>9900</v>
+      </c>
+      <c r="M13" s="14">
+        <v>1798.83</v>
+      </c>
+      <c r="N13" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M7" s="10">
-        <v>8250.0</v>
-      </c>
-      <c r="N7" s="12">
-        <v>1129.7</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="O13" s="12">
+        <v>14850</v>
+      </c>
+      <c r="P13" s="14">
+        <v>2033.46</v>
+      </c>
+      <c r="Q13" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="P7" s="10">
-        <v>16500.0</v>
-      </c>
-      <c r="Q7" s="12">
-        <v>1390.4</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="R13" s="12">
+        <v>29700</v>
+      </c>
+      <c r="S13" s="15">
+        <v>2502.7199999999998</v>
+      </c>
+      <c r="T13" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S7" s="11">
+      <c r="U13" s="8">
+        <f>B13</f>
+        <v>99000</v>
+      </c>
+      <c r="V13" s="15">
+        <v>4066.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="B14" s="17">
+        <v>105000</v>
+      </c>
+      <c r="C14" s="14">
+        <v>1659</v>
+      </c>
+      <c r="D14" s="12">
+        <f t="shared" si="0"/>
+        <v>273000</v>
+      </c>
+      <c r="E14" s="8">
+        <f>V14</f>
+        <v>4313.3999999999996</v>
+      </c>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>63.291139240506332</v>
+      </c>
+      <c r="G14" s="8">
         <f t="shared" si="2"/>
-        <v>55000</v>
-      </c>
-      <c r="T7" s="12">
-        <v>2259.4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="10">
-        <v>61200.0</v>
-      </c>
-      <c r="C8" s="9">
-        <v>966.96</v>
-      </c>
-      <c r="D8" s="10">
-        <v>159120.0</v>
-      </c>
-      <c r="E8" s="10">
+        <v>240240</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I14" s="17">
+        <v>5250</v>
+      </c>
+      <c r="J14" s="15">
+        <v>1741.95</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L14" s="12">
+        <v>10500</v>
+      </c>
+      <c r="M14" s="14">
+        <v>1907.85</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O14" s="17">
+        <v>15750</v>
+      </c>
+      <c r="P14" s="14">
+        <v>2156.6999999999998</v>
+      </c>
+      <c r="Q14" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R14" s="12">
+        <v>31500</v>
+      </c>
+      <c r="S14" s="14">
+        <v>2654.4</v>
+      </c>
+      <c r="T14" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U14" s="8">
+        <f>B14</f>
+        <v>105000</v>
+      </c>
+      <c r="V14" s="15">
+        <v>4313.3999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="B15" s="17">
+        <v>115000</v>
+      </c>
+      <c r="C15" s="14">
+        <v>1817</v>
+      </c>
+      <c r="D15" s="12">
+        <f t="shared" si="0"/>
+        <v>299000</v>
+      </c>
+      <c r="E15" s="8">
+        <f>V15</f>
+        <v>4724.2</v>
+      </c>
+      <c r="F15" s="8">
         <f t="shared" si="1"/>
-        <v>2514.1</v>
-      </c>
-      <c r="F8" s="9" t="s">
+        <v>63.291139240506332</v>
+      </c>
+      <c r="G15" s="8">
+        <f t="shared" si="2"/>
+        <v>263120</v>
+      </c>
+      <c r="H15" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="10">
-        <v>3060.0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>1015.31</v>
-      </c>
-      <c r="I8" s="9" t="s">
+      <c r="I15" s="12">
+        <v>5750</v>
+      </c>
+      <c r="J15" s="15">
+        <v>1907.85</v>
+      </c>
+      <c r="K15" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="10">
-        <v>6120.0</v>
-      </c>
-      <c r="K8" s="10">
-        <v>1112.0</v>
-      </c>
-      <c r="L8" s="9" t="s">
+      <c r="L15" s="12">
+        <v>11500</v>
+      </c>
+      <c r="M15" s="14">
+        <v>2089.5500000000002</v>
+      </c>
+      <c r="N15" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M8" s="10">
-        <v>9180.0</v>
-      </c>
-      <c r="N8" s="12">
-        <v>1257.05</v>
-      </c>
-      <c r="O8" s="9" t="s">
+      <c r="O15" s="17">
+        <v>17250</v>
+      </c>
+      <c r="P15" s="15">
+        <v>2362.1</v>
+      </c>
+      <c r="Q15" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="P8" s="10">
-        <v>18360.0</v>
-      </c>
-      <c r="Q8" s="12">
-        <v>1547.14</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="R15" s="12">
+        <v>34500</v>
+      </c>
+      <c r="S15" s="15">
+        <v>2907.2</v>
+      </c>
+      <c r="T15" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S8" s="11">
+      <c r="U15" s="8">
+        <f>B15</f>
+        <v>115000</v>
+      </c>
+      <c r="V15" s="15">
+        <v>4724.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="B16" s="17">
+        <v>124500</v>
+      </c>
+      <c r="C16" s="14">
+        <v>1967.1</v>
+      </c>
+      <c r="D16" s="12">
+        <f t="shared" si="0"/>
+        <v>323700</v>
+      </c>
+      <c r="E16" s="8">
+        <f>V16</f>
+        <v>5114.46</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G16" s="8">
         <f t="shared" si="2"/>
-        <v>61200</v>
-      </c>
-      <c r="T8" s="12">
-        <v>2514.1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="10">
-        <v>69500.0</v>
-      </c>
-      <c r="C9" s="12">
-        <v>1098.1</v>
-      </c>
-      <c r="D9" s="10">
-        <v>180700.0</v>
-      </c>
-      <c r="E9" s="10">
+        <v>284856</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I16" s="12">
+        <v>6225</v>
+      </c>
+      <c r="J16" s="15">
+        <v>2065.46</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="12">
+        <v>12450</v>
+      </c>
+      <c r="M16" s="14">
+        <v>2262.17</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O16" s="17">
+        <v>18675</v>
+      </c>
+      <c r="P16" s="15">
+        <v>2557.23</v>
+      </c>
+      <c r="Q16" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R16" s="12">
+        <v>37350</v>
+      </c>
+      <c r="S16" s="14">
+        <v>3147.36</v>
+      </c>
+      <c r="T16" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" ref="U16:U29" si="3">B16</f>
+        <v>124500</v>
+      </c>
+      <c r="V16" s="15">
+        <v>5114.46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="B17" s="17">
+        <v>139900</v>
+      </c>
+      <c r="C17" s="14">
+        <v>2210.42</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="0"/>
+        <v>363740</v>
+      </c>
+      <c r="E17" s="8">
+        <f>V17</f>
+        <v>5747.09</v>
+      </c>
+      <c r="F17" s="8">
         <f t="shared" si="1"/>
-        <v>2855.06</v>
-      </c>
-      <c r="F9" s="9" t="s">
+        <v>63.291161265962423</v>
+      </c>
+      <c r="G17" s="8">
+        <f t="shared" si="2"/>
+        <v>320091.2</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G9" s="10">
-        <v>3475.0</v>
-      </c>
-      <c r="H9" s="12">
-        <v>1153.01</v>
-      </c>
-      <c r="I9" s="9" t="s">
+      <c r="I17" s="12">
+        <v>6995</v>
+      </c>
+      <c r="J17" s="15">
+        <v>2320.94</v>
+      </c>
+      <c r="K17" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="10">
-        <v>6950.0</v>
-      </c>
-      <c r="K9" s="12">
-        <v>1262.82</v>
-      </c>
-      <c r="L9" s="9" t="s">
+      <c r="L17" s="12">
+        <v>13990</v>
+      </c>
+      <c r="M17" s="14">
+        <v>2541.98</v>
+      </c>
+      <c r="N17" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M9" s="10">
-        <v>10425.0</v>
-      </c>
-      <c r="N9" s="12">
-        <v>1427.53</v>
-      </c>
-      <c r="O9" s="9" t="s">
+      <c r="O17" s="17">
+        <v>20985</v>
+      </c>
+      <c r="P17" s="15">
+        <v>2873.55</v>
+      </c>
+      <c r="Q17" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="P9" s="10">
-        <v>20850.0</v>
-      </c>
-      <c r="Q9" s="12">
-        <v>1756.96</v>
-      </c>
-      <c r="R9" s="9" t="s">
+      <c r="R17" s="12">
+        <v>41970</v>
+      </c>
+      <c r="S17" s="15">
+        <v>3536.67</v>
+      </c>
+      <c r="T17" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S9" s="11">
+      <c r="U17" s="8">
+        <f t="shared" si="3"/>
+        <v>139900</v>
+      </c>
+      <c r="V17" s="15">
+        <v>5747.09</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>145</v>
+      </c>
+      <c r="B18" s="17">
+        <v>148000</v>
+      </c>
+      <c r="C18" s="14">
+        <v>2338.4</v>
+      </c>
+      <c r="D18" s="12">
+        <f t="shared" si="0"/>
+        <v>384800</v>
+      </c>
+      <c r="E18" s="8">
+        <f>V18</f>
+        <v>6079.84</v>
+      </c>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G18" s="8">
         <f t="shared" si="2"/>
-        <v>69500</v>
-      </c>
-      <c r="T9" s="12">
-        <v>2855.06</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="B10" s="10">
-        <v>74000.0</v>
-      </c>
-      <c r="C10" s="12">
-        <v>1168.2</v>
-      </c>
-      <c r="D10" s="10">
-        <v>192400.0</v>
-      </c>
-      <c r="E10" s="10">
+        <v>338624</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="12">
+        <v>7400</v>
+      </c>
+      <c r="J18" s="15">
+        <v>2455.3200000000002</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L18" s="12">
+        <v>14800</v>
+      </c>
+      <c r="M18" s="14">
+        <v>2689.16</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O18" s="17">
+        <v>22200</v>
+      </c>
+      <c r="P18" s="15">
+        <v>3039.92</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R18" s="12">
+        <v>44400</v>
+      </c>
+      <c r="S18" s="14">
+        <v>3741.44</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" si="3"/>
+        <v>148000</v>
+      </c>
+      <c r="V18" s="15">
+        <v>6079.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="B19" s="17">
+        <v>168000</v>
+      </c>
+      <c r="C19" s="14">
+        <v>2654.4</v>
+      </c>
+      <c r="D19" s="12">
+        <f t="shared" si="0"/>
+        <v>436800</v>
+      </c>
+      <c r="E19" s="8">
+        <f>V19</f>
+        <v>6901.44</v>
+      </c>
+      <c r="F19" s="8">
         <f t="shared" si="1"/>
-        <v>3039.92</v>
-      </c>
-      <c r="F10" s="9" t="s">
+        <v>63.291139240506332</v>
+      </c>
+      <c r="G19" s="8">
+        <f t="shared" si="2"/>
+        <v>384384</v>
+      </c>
+      <c r="H19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="G10" s="10">
-        <v>3700.0</v>
-      </c>
-      <c r="H10" s="12">
-        <v>1227.66</v>
-      </c>
-      <c r="I10" s="9" t="s">
+      <c r="I19" s="12">
+        <v>8400</v>
+      </c>
+      <c r="J19" s="15">
+        <v>2787.12</v>
+      </c>
+      <c r="K19" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="10">
-        <v>7400.0</v>
-      </c>
-      <c r="K10" s="12">
-        <v>1344.58</v>
-      </c>
-      <c r="L10" s="9" t="s">
+      <c r="L19" s="12">
+        <v>16800</v>
+      </c>
+      <c r="M19" s="14">
+        <v>3052.56</v>
+      </c>
+      <c r="N19" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="M10" s="10">
-        <v>11100.0</v>
-      </c>
-      <c r="N10" s="12">
-        <v>1519.96</v>
-      </c>
-      <c r="O10" s="9" t="s">
+      <c r="O19" s="17">
+        <v>25200</v>
+      </c>
+      <c r="P19" s="15">
+        <v>3450.72</v>
+      </c>
+      <c r="Q19" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="P10" s="10">
-        <v>22200.0</v>
-      </c>
-      <c r="Q10" s="12">
-        <v>1870.72</v>
-      </c>
-      <c r="R10" s="9" t="s">
+      <c r="R19" s="12">
+        <v>50400</v>
+      </c>
+      <c r="S19" s="15">
+        <v>4247.04</v>
+      </c>
+      <c r="T19" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="S10" s="11">
+      <c r="U19" s="8">
+        <f t="shared" si="3"/>
+        <v>168000</v>
+      </c>
+      <c r="V19" s="15">
+        <v>6901.44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>149</v>
+      </c>
+      <c r="B20" s="17">
+        <v>174000</v>
+      </c>
+      <c r="C20" s="14">
+        <v>2749.2</v>
+      </c>
+      <c r="D20" s="12">
+        <f t="shared" si="0"/>
+        <v>452400</v>
+      </c>
+      <c r="E20" s="8">
+        <f>V20</f>
+        <v>7147.92</v>
+      </c>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G20" s="8">
         <f t="shared" si="2"/>
-        <v>74000</v>
-      </c>
-      <c r="T10" s="12">
-        <v>3039.92</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="E11" s="10" t="str">
+        <v>398112</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="12">
+        <v>8700</v>
+      </c>
+      <c r="J20" s="15">
+        <v>288.66000000000003</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="12">
+        <v>17400</v>
+      </c>
+      <c r="M20" s="14">
+        <v>3161.58</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O20" s="17">
+        <v>26100</v>
+      </c>
+      <c r="P20" s="15">
+        <v>3573.96</v>
+      </c>
+      <c r="Q20" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R20" s="12">
+        <v>52200</v>
+      </c>
+      <c r="S20" s="14">
+        <v>4398.72</v>
+      </c>
+      <c r="T20" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" si="3"/>
+        <v>174000</v>
+      </c>
+      <c r="V20" s="15">
+        <v>7147.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="B21" s="17">
+        <v>199000</v>
+      </c>
+      <c r="C21" s="14">
+        <v>3144.2</v>
+      </c>
+      <c r="D21" s="12">
+        <f>(B21 * 2)+I21+L21+O21+R21</f>
+        <v>517400</v>
+      </c>
+      <c r="E21" s="8">
+        <f>V21</f>
+        <v>8174.92</v>
+      </c>
+      <c r="F21" s="8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S11" s="13" t="str">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G21" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12">
-      <c r="E12" s="10" t="str">
+        <v>455312</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="12">
+        <v>9950</v>
+      </c>
+      <c r="J21" s="15">
+        <v>3301.41</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L21" s="12">
+        <v>19900</v>
+      </c>
+      <c r="M21" s="14">
+        <v>3615.83</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O21" s="17">
+        <v>29850</v>
+      </c>
+      <c r="P21" s="15">
+        <v>4087.46</v>
+      </c>
+      <c r="Q21" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R21" s="12">
+        <v>59700</v>
+      </c>
+      <c r="S21" s="15">
+        <v>5030.72</v>
+      </c>
+      <c r="T21" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U21" s="8">
+        <f t="shared" si="3"/>
+        <v>199000</v>
+      </c>
+      <c r="V21" s="15">
+        <v>8174.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" s="17">
+        <v>210000</v>
+      </c>
+      <c r="C22" s="14">
+        <v>3318</v>
+      </c>
+      <c r="D22" s="12">
+        <f t="shared" ref="D22:D29" si="4">B22+I22+L22+O22+R22+U22</f>
+        <v>546000</v>
+      </c>
+      <c r="E22" s="8">
+        <f>V22</f>
+        <v>8626.7999999999993</v>
+      </c>
+      <c r="F22" s="8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S12" s="13" t="str">
+        <v>63.291139240506332</v>
+      </c>
+      <c r="G22" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13">
-      <c r="E13" s="10" t="str">
+        <v>480480</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="12">
+        <v>10500</v>
+      </c>
+      <c r="J22" s="15">
+        <v>3483.9</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L22" s="12">
+        <v>21000</v>
+      </c>
+      <c r="M22" s="14">
+        <v>3815.7</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O22" s="17">
+        <v>31500</v>
+      </c>
+      <c r="P22" s="15">
+        <v>4313.3999999999996</v>
+      </c>
+      <c r="Q22" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R22" s="12">
+        <v>63000</v>
+      </c>
+      <c r="S22" s="14">
+        <v>5308.8</v>
+      </c>
+      <c r="T22" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U22" s="8">
+        <f t="shared" si="3"/>
+        <v>210000</v>
+      </c>
+      <c r="V22" s="15">
+        <v>8626.7999999999993</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="B23" s="17">
+        <v>290000</v>
+      </c>
+      <c r="C23" s="14">
+        <v>4582</v>
+      </c>
+      <c r="D23" s="12">
+        <f t="shared" si="4"/>
+        <v>754000</v>
+      </c>
+      <c r="E23" s="8">
+        <f>V23</f>
+        <v>11913.2</v>
+      </c>
+      <c r="F23" s="8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S13" s="13" t="str">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G23" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14">
-      <c r="E14" s="10" t="str">
+        <v>663520</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="12">
+        <v>14500</v>
+      </c>
+      <c r="J23" s="15">
+        <v>4811.1000000000004</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="12">
+        <v>29000</v>
+      </c>
+      <c r="M23" s="14">
+        <v>5269.3</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O23" s="17">
+        <v>43500</v>
+      </c>
+      <c r="P23" s="15">
+        <v>5956.6</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R23" s="12">
+        <v>87000</v>
+      </c>
+      <c r="S23" s="15">
+        <v>7331.2</v>
+      </c>
+      <c r="T23" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U23" s="8">
+        <f t="shared" si="3"/>
+        <v>290000</v>
+      </c>
+      <c r="V23" s="15">
+        <v>11913.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="B24" s="17">
+        <v>315000</v>
+      </c>
+      <c r="C24" s="14">
+        <v>4977</v>
+      </c>
+      <c r="D24" s="12">
+        <f t="shared" si="4"/>
+        <v>819000</v>
+      </c>
+      <c r="E24" s="8">
+        <f>V24</f>
+        <v>12940.2</v>
+      </c>
+      <c r="F24" s="8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S14" s="13" t="str">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G24" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15">
-      <c r="E15" s="10" t="str">
+        <v>720720</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I24" s="12">
+        <v>15750</v>
+      </c>
+      <c r="J24" s="15">
+        <v>5225.8500000000004</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L24" s="12">
+        <v>31500</v>
+      </c>
+      <c r="M24" s="14">
+        <v>5723.55</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O24" s="17">
+        <v>47250</v>
+      </c>
+      <c r="P24" s="15">
+        <v>6470.1</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R24" s="12">
+        <v>94500</v>
+      </c>
+      <c r="S24" s="14">
+        <v>7963.2</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U24" s="8">
+        <f t="shared" si="3"/>
+        <v>315000</v>
+      </c>
+      <c r="V24" s="15">
+        <v>12940.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="17">
+        <v>317000</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="D25" s="12">
+        <f t="shared" si="4"/>
+        <v>824200</v>
+      </c>
+      <c r="E25" s="8">
+        <f>V25</f>
+        <v>13022.36</v>
+      </c>
+      <c r="F25" s="8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S15" s="13" t="str">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G25" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16">
-      <c r="E16" s="10" t="str">
+        <v>725296</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I25" s="12">
+        <v>15850</v>
+      </c>
+      <c r="J25" s="15">
+        <v>5259.03</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L25" s="12">
+        <v>31700</v>
+      </c>
+      <c r="M25" s="14">
+        <v>5759.89</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O25" s="17">
+        <v>47550</v>
+      </c>
+      <c r="P25" s="15">
+        <v>6511.18</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R25" s="12">
+        <v>95100</v>
+      </c>
+      <c r="S25" s="15">
+        <v>8013.76</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U25" s="8">
+        <f t="shared" si="3"/>
+        <v>317000</v>
+      </c>
+      <c r="V25" s="15">
+        <v>13022.36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="B26" s="17">
+        <v>405000</v>
+      </c>
+      <c r="C26" s="14">
+        <v>6399</v>
+      </c>
+      <c r="D26" s="12">
+        <f t="shared" si="4"/>
+        <v>1053000</v>
+      </c>
+      <c r="E26" s="8">
+        <f>V26</f>
+        <v>16637.400000000001</v>
+      </c>
+      <c r="F26" s="8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S16" s="13" t="str">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G26" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17">
-      <c r="E17" s="10" t="str">
+        <v>926640</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I26" s="12">
+        <v>20250</v>
+      </c>
+      <c r="J26" s="15">
+        <v>6718.95</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L26" s="12">
+        <v>40500</v>
+      </c>
+      <c r="M26" s="14">
+        <v>7358.85</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O26" s="17">
+        <v>60750</v>
+      </c>
+      <c r="P26" s="15">
+        <v>8318.7000000000007</v>
+      </c>
+      <c r="Q26" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R26" s="12">
+        <v>121500</v>
+      </c>
+      <c r="S26" s="14">
+        <v>10238.4</v>
+      </c>
+      <c r="T26" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U26" s="8">
+        <f t="shared" si="3"/>
+        <v>405000</v>
+      </c>
+      <c r="V26" s="15">
+        <v>16637.400000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="B27" s="17">
+        <v>480000</v>
+      </c>
+      <c r="C27" s="14">
+        <v>7584</v>
+      </c>
+      <c r="D27" s="12">
+        <f t="shared" si="4"/>
+        <v>1248000</v>
+      </c>
+      <c r="E27" s="8">
+        <f>V27</f>
+        <v>19718.400000000001</v>
+      </c>
+      <c r="F27" s="8">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S17" s="13" t="str">
+        <v>63.291139240506325</v>
+      </c>
+      <c r="G27" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18">
-      <c r="E18" s="10" t="str">
+        <v>1098240</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="I27" s="12">
+        <v>24000</v>
+      </c>
+      <c r="J27" s="15">
+        <v>7963.2</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="L27" s="12">
+        <v>48000</v>
+      </c>
+      <c r="M27" s="14">
+        <v>8721.6</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="O27" s="17">
+        <v>72000</v>
+      </c>
+      <c r="P27" s="15">
+        <v>9859.2000000000007</v>
+      </c>
+      <c r="Q27" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="R27" s="12">
+        <v>144000</v>
+      </c>
+      <c r="S27" s="15">
+        <v>12134.4</v>
+      </c>
+      <c r="T27" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U27" s="8">
+        <f t="shared" si="3"/>
+        <v>480000</v>
+      </c>
+      <c r="V27" s="15">
+        <v>19718.400000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D28" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E28" s="8">
+        <f>V28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="8" t="e">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S18" s="13" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G28" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19">
-      <c r="E19" s="10" t="str">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U28" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="D29" s="12">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="E29" s="8">
+        <f>V29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="8" t="e">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S19" s="13" t="str">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G29" s="8">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20">
-      <c r="E20" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S20" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="E21" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S21" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22">
-      <c r="E22" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S22" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="E23" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S23" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24">
-      <c r="E24" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S24" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25">
-      <c r="E25" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S25" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26">
-      <c r="E26" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S26" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="E27" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S27" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="E28" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="S28" s="13" t="str">
-        <f t="shared" si="2"/>
-        <v/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="U29" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B2" s="10">
-        <v>520000.0</v>
+      <c r="B2" s="8">
+        <v>520000</v>
       </c>
       <c r="C2" s="3">
-        <v>560.0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>10800.0</v>
+        <v>560</v>
+      </c>
+      <c r="D2" s="8">
+        <v>10800</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G2" s="13">
-        <f t="shared" ref="G2:G15" si="1">B2/D2</f>
-        <v>48.14814815</v>
-      </c>
-      <c r="H2" s="13">
-        <f t="shared" ref="H2:H15" si="2">D2/C2</f>
-        <v>19.28571429</v>
-      </c>
-      <c r="I2" s="14"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G15" si="0">B2/D2</f>
+        <v>48.148148148148145</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H15" si="1">D2/C2</f>
+        <v>19.285714285714285</v>
+      </c>
+      <c r="I2" s="10"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B3" s="10">
-        <v>480000.0</v>
+      <c r="B3" s="8">
+        <v>480000</v>
       </c>
       <c r="C3" s="3">
-        <v>560.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>12262.0</v>
+        <v>560</v>
+      </c>
+      <c r="D3" s="8">
+        <v>12262</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="7">
+        <f t="shared" si="0"/>
+        <v>39.145327026586202</v>
+      </c>
+      <c r="H3" s="7">
         <f t="shared" si="1"/>
-        <v>39.14532703</v>
-      </c>
-      <c r="H3" s="13">
-        <f t="shared" si="2"/>
-        <v>21.89642857</v>
-      </c>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+        <v>21.896428571428572</v>
+      </c>
+      <c r="I3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B4" s="10">
-        <v>300000.0</v>
+      <c r="B4" s="8">
+        <v>300000</v>
       </c>
       <c r="C4" s="3">
-        <v>560.0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>7853.0</v>
+        <v>560</v>
+      </c>
+      <c r="D4" s="8">
+        <v>7853</v>
       </c>
       <c r="E4" s="5">
         <v>12553.036</v>
@@ -2650,653 +3961,769 @@
       <c r="F4" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>38.201961033999744</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="1"/>
-        <v>38.20196103</v>
-      </c>
-      <c r="H4" s="13">
-        <f t="shared" si="2"/>
-        <v>14.02321429</v>
-      </c>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
+        <v>14.023214285714285</v>
+      </c>
+      <c r="I4" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B5" s="10">
-        <v>420000.0</v>
-      </c>
-      <c r="C5" s="9">
-        <v>954.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>22246.0</v>
+      <c r="B5" s="8">
+        <v>420000</v>
+      </c>
+      <c r="C5" s="7">
+        <v>954</v>
+      </c>
+      <c r="D5" s="8">
+        <v>22246</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>18.879798615481434</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
-        <v>18.87979862</v>
-      </c>
-      <c r="H5" s="13">
-        <f t="shared" si="2"/>
-        <v>23.31865828</v>
-      </c>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
+        <v>23.318658280922431</v>
+      </c>
+      <c r="I5" s="3"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B6" s="10">
-        <v>390000.0</v>
-      </c>
-      <c r="C6" s="9">
-        <v>954.0</v>
+      <c r="B6" s="8">
+        <v>390000</v>
+      </c>
+      <c r="C6" s="7">
+        <v>954</v>
       </c>
       <c r="D6" s="4">
-        <v>20171.0</v>
+        <v>20171</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>19.334688414059787</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>19.33468841</v>
-      </c>
-      <c r="H6" s="13">
-        <f t="shared" si="2"/>
-        <v>21.14360587</v>
-      </c>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="9" t="s">
+        <v>21.143605870020963</v>
+      </c>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B7" s="10">
-        <v>415000.0</v>
-      </c>
-      <c r="C7" s="10">
-        <v>1180.0</v>
+      <c r="B7" s="8">
+        <v>415000</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1180</v>
       </c>
       <c r="D7" s="4">
-        <v>29375.0</v>
+        <v>29375</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>14.127659574468085</v>
+      </c>
+      <c r="H7" s="7">
         <f t="shared" si="1"/>
-        <v>14.12765957</v>
-      </c>
-      <c r="H7" s="13">
-        <f t="shared" si="2"/>
-        <v>24.8940678</v>
-      </c>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="9" t="s">
+        <v>24.89406779661017</v>
+      </c>
+      <c r="I7" s="3"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B8" s="10">
-        <v>410000.0</v>
-      </c>
-      <c r="C8" s="10">
-        <v>1180.0</v>
+      <c r="B8" s="8">
+        <v>410000</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1180</v>
       </c>
       <c r="D8" s="4">
-        <v>26302.0</v>
+        <v>26302</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="7">
+        <f t="shared" si="0"/>
+        <v>15.588168200136872</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="1"/>
-        <v>15.5881682</v>
-      </c>
-      <c r="H8" s="13">
-        <f t="shared" si="2"/>
-        <v>22.28983051</v>
-      </c>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="9" t="s">
+        <v>22.289830508474576</v>
+      </c>
+      <c r="I8" s="3"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B9" s="10">
-        <v>460000.0</v>
-      </c>
-      <c r="C9" s="10">
-        <v>2420.0</v>
+      <c r="B9" s="8">
+        <v>460000</v>
+      </c>
+      <c r="C9" s="8">
+        <v>2420</v>
       </c>
       <c r="D9" s="4">
-        <v>66000.0</v>
+        <v>66000</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="7">
+        <f t="shared" si="0"/>
+        <v>6.9696969696969697</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="1"/>
-        <v>6.96969697</v>
-      </c>
-      <c r="H9" s="13">
-        <f t="shared" si="2"/>
-        <v>27.27272727</v>
-      </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="9" t="s">
+        <v>27.272727272727273</v>
+      </c>
+      <c r="I9" s="3"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B10" s="10">
-        <v>450000.0</v>
-      </c>
-      <c r="C10" s="10">
-        <v>2420.0</v>
+      <c r="B10" s="8">
+        <v>450000</v>
+      </c>
+      <c r="C10" s="8">
+        <v>2420</v>
       </c>
       <c r="D10" s="4">
-        <v>62002.0</v>
+        <v>62002</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="7">
+        <f t="shared" si="0"/>
+        <v>7.2578303925679819</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="1"/>
-        <v>7.257830393</v>
-      </c>
-      <c r="H10" s="13">
-        <f t="shared" si="2"/>
-        <v>25.62066116</v>
-      </c>
-      <c r="I10" s="6"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="9" t="s">
+        <v>25.620661157024795</v>
+      </c>
+      <c r="I10" s="3"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="10">
-        <v>440000.0</v>
-      </c>
-      <c r="C11" s="10">
-        <v>2420.0</v>
+      <c r="B11" s="8">
+        <v>440000</v>
+      </c>
+      <c r="C11" s="8">
+        <v>2420</v>
       </c>
       <c r="D11" s="4">
-        <v>57869.0</v>
+        <v>57869</v>
       </c>
       <c r="E11" s="3"/>
       <c r="F11" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="7">
+        <f t="shared" si="0"/>
+        <v>7.6033800480395373</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>7.603380048</v>
-      </c>
-      <c r="H11" s="13">
-        <f t="shared" si="2"/>
-        <v>23.91280992</v>
-      </c>
-      <c r="I11" s="6"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="9" t="s">
+        <v>23.912809917355371</v>
+      </c>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B12" s="10">
-        <v>305000.0</v>
-      </c>
-      <c r="C12" s="10">
-        <v>5040.0</v>
+      <c r="B12" s="8">
+        <v>305000</v>
+      </c>
+      <c r="C12" s="8">
+        <v>5040</v>
       </c>
       <c r="D12" s="4">
-        <v>137783.0</v>
+        <v>137783</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2136257738617973</v>
+      </c>
+      <c r="H12" s="7">
         <f t="shared" si="1"/>
-        <v>2.213625774</v>
-      </c>
-      <c r="H12" s="13">
-        <f t="shared" si="2"/>
-        <v>27.33789683</v>
-      </c>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="s">
+        <v>27.337896825396825</v>
+      </c>
+      <c r="I12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B13" s="10">
-        <v>300000.0</v>
-      </c>
-      <c r="C13" s="10">
-        <v>5040.0</v>
+      <c r="B13" s="8">
+        <v>300000</v>
+      </c>
+      <c r="C13" s="8">
+        <v>5040</v>
       </c>
       <c r="D13" s="4">
-        <v>124005.0</v>
+        <v>124005</v>
       </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="7">
+        <f t="shared" si="0"/>
+        <v>2.41925728801258</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="1"/>
-        <v>2.419257288</v>
-      </c>
-      <c r="H13" s="13">
-        <f t="shared" si="2"/>
-        <v>24.60416667</v>
-      </c>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="9" t="s">
+        <v>24.604166666666668</v>
+      </c>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B14" s="10">
-        <v>298000.0</v>
-      </c>
-      <c r="C14" s="10">
-        <v>5040.0</v>
+      <c r="B14" s="8">
+        <v>298000</v>
+      </c>
+      <c r="C14" s="8">
+        <v>5040</v>
       </c>
       <c r="D14" s="4">
-        <v>122274.0</v>
+        <v>122274</v>
       </c>
       <c r="E14" s="3"/>
       <c r="F14" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="7">
+        <f t="shared" si="0"/>
+        <v>2.4371493530922357</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="1"/>
-        <v>2.437149353</v>
-      </c>
-      <c r="H14" s="13">
-        <f t="shared" si="2"/>
-        <v>24.26071429</v>
-      </c>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="s">
+        <v>24.260714285714286</v>
+      </c>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B15" s="10">
-        <v>600000.0</v>
-      </c>
-      <c r="C15" s="10">
-        <v>13050.0</v>
+      <c r="B15" s="8">
+        <v>600000</v>
+      </c>
+      <c r="C15" s="8">
+        <v>13050</v>
       </c>
       <c r="D15" s="4">
-        <v>262000.0</v>
+        <v>262000</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="7">
+        <f t="shared" si="0"/>
+        <v>2.2900763358778624</v>
+      </c>
+      <c r="H15" s="7">
         <f t="shared" si="1"/>
-        <v>2.290076336</v>
-      </c>
-      <c r="H15" s="13">
-        <f t="shared" si="2"/>
-        <v>20.07662835</v>
-      </c>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16">
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17">
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18">
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19">
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20">
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="I20" s="6"/>
-    </row>
-    <row r="21">
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="I21" s="6"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23">
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24">
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25">
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26">
-      <c r="D26" s="6"/>
-      <c r="E26" s="6"/>
-      <c r="F26" s="6"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27">
-      <c r="D27" s="6"/>
-      <c r="E27" s="6"/>
-      <c r="F27" s="6"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28">
-      <c r="D28" s="6"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29">
-      <c r="D29" s="6"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="6"/>
-      <c r="I30" s="6"/>
-    </row>
-    <row r="31">
-      <c r="D31" s="6"/>
-      <c r="I31" s="6"/>
-    </row>
-    <row r="32">
-      <c r="D32" s="6"/>
-    </row>
-    <row r="33">
-      <c r="D33" s="6"/>
-    </row>
-    <row r="34">
-      <c r="D34" s="6"/>
-    </row>
-    <row r="35">
-      <c r="D35" s="6"/>
-    </row>
-    <row r="36">
-      <c r="D36" s="6"/>
+        <v>20.07662835249042</v>
+      </c>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+    <row r="28" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D28" s="3"/>
+      <c r="I28" s="3"/>
+    </row>
+    <row r="29" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D29" s="3"/>
+      <c r="I29" s="3"/>
+    </row>
+    <row r="30" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D30" s="3"/>
+      <c r="I30" s="3"/>
+    </row>
+    <row r="31" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D31" s="3"/>
+      <c r="I31" s="3"/>
+    </row>
+    <row r="32" spans="4:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="3"/>
+    </row>
+    <row r="33" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D33" s="3"/>
+    </row>
+    <row r="34" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D34" s="3"/>
+    </row>
+    <row r="35" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D35" s="3"/>
+    </row>
+    <row r="36" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D36" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>130</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="9" t="s">
+      <c r="I1" s="11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B2" s="10">
-        <v>750000.0</v>
-      </c>
-      <c r="C2" s="4">
-        <v>1750.0</v>
-      </c>
-      <c r="D2" s="10">
-        <v>29556.0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>43360.664</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G2" s="13">
-        <f t="shared" ref="G2:G6" si="1">B2/D2</f>
-        <v>25.37555826</v>
-      </c>
-      <c r="H2" s="13">
-        <f t="shared" ref="H2:H6" si="2">D2/C2</f>
-        <v>16.88914286</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="9" t="s">
+      <c r="C2" s="8">
+        <v>750000</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1750</v>
+      </c>
+      <c r="E2" s="8">
+        <v>29556</v>
+      </c>
+      <c r="F2" s="5">
+        <v>43360.663999999997</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" ref="G2:G6" si="0">C2/E2</f>
+        <v>25.375558262281771</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" ref="H2:H6" si="1">E2/D2</f>
+        <v>16.889142857142858</v>
+      </c>
+      <c r="I2">
+        <f>F2/C2</f>
+        <v>5.781421866666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B3" s="10">
-        <v>1280000.0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1750.0</v>
-      </c>
-      <c r="D3" s="10">
-        <v>37000.0</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3" t="s">
+      <c r="B3" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="G3" s="13">
+      <c r="C3" s="8">
+        <v>1280000</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1750</v>
+      </c>
+      <c r="E3" s="8">
+        <v>37000</v>
+      </c>
+      <c r="F3" s="3">
+        <f>(622222.17-(5*E3))/5</f>
+        <v>87444.434000000008</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="0"/>
+        <v>34.594594594594597</v>
+      </c>
+      <c r="H3" s="7">
         <f t="shared" si="1"/>
-        <v>34.59459459</v>
-      </c>
-      <c r="H3" s="13">
+        <v>21.142857142857142</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="2">F3/C3</f>
+        <v>6.8315964062500012E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1340000</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1750</v>
+      </c>
+      <c r="E4" s="8">
+        <v>41335</v>
+      </c>
+      <c r="F4" s="3">
+        <f>(651388.83-(5*E4))/5</f>
+        <v>88942.765999999989</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>32.418047659368575</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="1"/>
+        <v>23.62</v>
+      </c>
+      <c r="I4">
         <f t="shared" si="2"/>
-        <v>21.14285714</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="10">
-        <v>1340000.0</v>
-      </c>
-      <c r="C4" s="4">
-        <v>1750.0</v>
-      </c>
-      <c r="D4" s="10">
-        <v>41335.0</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G4" s="13">
+        <v>6.6375198507462679E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1940000</v>
+      </c>
+      <c r="D5" s="8">
+        <v>3800</v>
+      </c>
+      <c r="E5" s="8">
+        <v>108617</v>
+      </c>
+      <c r="F5" s="3">
+        <f>(1535832.15-(5*E5))/5</f>
+        <v>198549.43</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>17.860924164725596</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="1"/>
-        <v>32.41804766</v>
-      </c>
-      <c r="H4" s="13">
+        <v>28.583421052631579</v>
+      </c>
+      <c r="I5">
         <f t="shared" si="2"/>
-        <v>23.62</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="10">
-        <v>1940000.0</v>
-      </c>
-      <c r="C5" s="10">
-        <v>3800.0</v>
-      </c>
-      <c r="D5" s="10">
-        <v>108617.0</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3" t="s">
+        <v>0.10234506701030928</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="13">
+      <c r="C6" s="8">
+        <v>2100000</v>
+      </c>
+      <c r="D6" s="8">
+        <v>3800</v>
+      </c>
+      <c r="E6" s="4">
+        <v>112402</v>
+      </c>
+      <c r="F6" s="3">
+        <f>(1662498.86-(5*E6))/5</f>
+        <v>220097.77200000003</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>18.682941584669312</v>
+      </c>
+      <c r="H6" s="7">
         <f t="shared" si="1"/>
-        <v>17.86092416</v>
-      </c>
-      <c r="H5" s="13">
+        <v>29.579473684210527</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>28.58342105</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="10">
-        <v>2100000.0</v>
-      </c>
-      <c r="C6" s="10">
-        <v>3800.0</v>
-      </c>
-      <c r="D6" s="4">
-        <v>112402.0</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G6" s="13">
-        <f t="shared" si="1"/>
-        <v>18.68294158</v>
-      </c>
-      <c r="H6" s="13">
-        <f t="shared" si="2"/>
-        <v>29.57947368</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
+        <v>0.10480846285714288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8">
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3"/>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="4"/>
       <c r="F8" s="3"/>
     </row>
-    <row r="9">
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="4"/>
       <c r="F9" s="3"/>
     </row>
-    <row r="10">
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="3"/>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4"/>
       <c r="F10" s="3"/>
     </row>
-    <row r="11">
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3"/>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="4"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12">
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="3"/>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13">
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3"/>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C13" s="8"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="3"/>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15">
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3"/>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C15" s="8"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4"/>
       <c r="F15" s="3"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <conditionalFormatting sqref="I2:I6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H2:H6">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G6">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F6">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E6">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2:D6">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2:C6">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="F5" formula="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>